--- a/assets/template/2b.xlsx
+++ b/assets/template/2b.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF14C586-85C8-4DA7-99FB-6446C8A15BA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
@@ -118,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,28 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,6 +319,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -359,113 +357,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Daftar Tabel"/>
-      <sheetName val="PS"/>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="1-3"/>
-      <sheetName val="2a"/>
-      <sheetName val="2b"/>
-      <sheetName val="3a1"/>
-      <sheetName val="3a2"/>
-      <sheetName val="3a3"/>
-      <sheetName val="3a4"/>
-      <sheetName val="3a5"/>
-      <sheetName val="3b1"/>
-      <sheetName val="3b2"/>
-      <sheetName val="3b3"/>
-      <sheetName val="3b4-1"/>
-      <sheetName val="3b4-2"/>
-      <sheetName val="3b5-1"/>
-      <sheetName val="3b5-2"/>
-      <sheetName val="3b5-3"/>
-      <sheetName val="3b5-4"/>
-      <sheetName val="3b6"/>
-      <sheetName val="3b7"/>
-      <sheetName val="4"/>
-      <sheetName val="5a"/>
-      <sheetName val="5b"/>
-      <sheetName val="5c"/>
-      <sheetName val="6a"/>
-      <sheetName val="6b"/>
-      <sheetName val="7"/>
-      <sheetName val="8a"/>
-      <sheetName val="8b1"/>
-      <sheetName val="8b2"/>
-      <sheetName val="8c"/>
-      <sheetName val="8d1"/>
-      <sheetName val="8d2"/>
-      <sheetName val="8e1"/>
-      <sheetName val="Ref 8e2"/>
-      <sheetName val="8e2"/>
-      <sheetName val="8f1-1"/>
-      <sheetName val="8f1-2"/>
-      <sheetName val="8f2"/>
-      <sheetName val="8f3"/>
-      <sheetName val="8f4-1"/>
-      <sheetName val="8f4-2"/>
-      <sheetName val="8f4-3"/>
-      <sheetName val="8f4-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -773,10 +664,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="9" customWidth="1"/>
-    <col min="3" max="11" width="9.85546875" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="5.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
+    <col min="3" max="11" width="9.85546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -790,258 +681,258 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <v>6</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="6">
         <v>7</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="6">
         <v>8</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="6">
         <v>10</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
